--- a/Feast data/Scenario_params.xlsx
+++ b/Feast data/Scenario_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\Github\Crop-simulation-study\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8392E007-A9E2-44EC-8059-4DE80A81CAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9D73F9-FFFB-4107-9263-A48E64CC2F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
   <sheets>
     <sheet name="Feeding" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="27">
   <si>
     <t>THH</t>
   </si>
@@ -111,6 +111,12 @@
   <si>
     <t>land</t>
   </si>
+  <si>
+    <t>delta.lf.pct</t>
+  </si>
+  <si>
+    <t>delta.lf.act</t>
+  </si>
 </sst>
 </file>
 
@@ -176,9 +182,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -216,7 +222,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -322,7 +328,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,7 +470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,13 +482,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.3671875" customWidth="1"/>
+    <col min="2" max="2" width="10.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -499,7 +505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -516,7 +522,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -533,7 +539,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -550,7 +556,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -567,7 +573,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -584,7 +590,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -601,7 +607,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -618,7 +624,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -635,7 +641,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -652,7 +658,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -669,7 +675,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -686,7 +692,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -703,7 +709,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -720,7 +726,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -737,7 +743,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -754,7 +760,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -771,7 +777,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -788,7 +794,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -805,7 +811,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -822,7 +828,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -839,7 +845,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -856,7 +862,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -873,7 +879,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -890,7 +896,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -907,7 +913,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -924,7 +930,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -941,7 +947,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -958,7 +964,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -975,7 +981,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -992,7 +998,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1270,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1281,7 +1287,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1321,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1400,7 +1406,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1434,7 +1440,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1451,7 +1457,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1519,7 +1525,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1553,7 +1559,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1570,7 +1576,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1587,7 +1593,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -1655,7 +1661,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -1867,15 +1873,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BF1606-AAB3-4737-92D3-A4DE46BB1277}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1889,10 +1895,13 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1908,8 +1917,12 @@
       <c r="E2">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <f>E2</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1925,8 +1938,12 @@
       <c r="E3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">E3</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1942,8 +1959,12 @@
       <c r="E4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1959,8 +1980,12 @@
       <c r="E5">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1976,8 +2001,12 @@
       <c r="E6">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1993,8 +2022,12 @@
       <c r="E7">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2010,8 +2043,12 @@
       <c r="E8">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2027,8 +2064,12 @@
       <c r="E9">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2044,8 +2085,12 @@
       <c r="E10">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2061,8 +2106,12 @@
       <c r="E11">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2078,8 +2127,12 @@
       <c r="E12">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2095,8 +2148,12 @@
       <c r="E13">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2112,8 +2169,12 @@
       <c r="E14">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2129,8 +2190,12 @@
       <c r="E15">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2146,8 +2211,12 @@
       <c r="E16">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2163,8 +2232,12 @@
       <c r="E17">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2180,8 +2253,12 @@
       <c r="E18">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2197,8 +2274,12 @@
       <c r="E19">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2214,8 +2295,12 @@
       <c r="E20">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2231,8 +2316,12 @@
       <c r="E21">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2248,8 +2337,12 @@
       <c r="E22">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2265,8 +2358,12 @@
       <c r="E23">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2282,8 +2379,12 @@
       <c r="E24">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2299,8 +2400,12 @@
       <c r="E25">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2316,8 +2421,12 @@
       <c r="E26">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2333,8 +2442,12 @@
       <c r="E27">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2350,8 +2463,12 @@
       <c r="E28">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -2367,8 +2484,12 @@
       <c r="E29">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2384,8 +2505,12 @@
       <c r="E30">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -2401,8 +2526,12 @@
       <c r="E31">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -2418,8 +2547,12 @@
       <c r="E32">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2435,8 +2568,12 @@
       <c r="E33">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2452,8 +2589,12 @@
       <c r="E34">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2469,8 +2610,12 @@
       <c r="E35">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2486,8 +2631,12 @@
       <c r="E36">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2503,8 +2652,12 @@
       <c r="E37">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2520,8 +2673,12 @@
       <c r="E38">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2537,8 +2694,12 @@
       <c r="E39">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2554,8 +2715,12 @@
       <c r="E40">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2571,8 +2736,12 @@
       <c r="E41">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2588,8 +2757,12 @@
       <c r="E42">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2605,8 +2778,12 @@
       <c r="E43">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2622,8 +2799,12 @@
       <c r="E44">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2639,8 +2820,12 @@
       <c r="E45">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2656,8 +2841,12 @@
       <c r="E46">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2673,8 +2862,12 @@
       <c r="E47">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2690,8 +2883,12 @@
       <c r="E48">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2707,8 +2904,12 @@
       <c r="E49">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2724,8 +2925,12 @@
       <c r="E50">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2741,8 +2946,12 @@
       <c r="E51">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2758,8 +2967,12 @@
       <c r="E52">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2775,8 +2988,12 @@
       <c r="E53">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2792,8 +3009,12 @@
       <c r="E54">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2809,8 +3030,12 @@
       <c r="E55">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2826,8 +3051,12 @@
       <c r="E56">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2843,8 +3072,12 @@
       <c r="E57">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2860,8 +3093,12 @@
       <c r="E58">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2877,8 +3114,12 @@
       <c r="E59">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2894,8 +3135,12 @@
       <c r="E60">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2911,8 +3156,12 @@
       <c r="E61">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2928,8 +3177,12 @@
       <c r="E62">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2945,8 +3198,12 @@
       <c r="E63">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2962,8 +3219,12 @@
       <c r="E64">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2979,8 +3240,12 @@
       <c r="E65">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2996,8 +3261,12 @@
       <c r="E66">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3013,8 +3282,12 @@
       <c r="E67">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67">
+        <f t="shared" ref="F67:F81" si="1">E67</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3030,8 +3303,12 @@
       <c r="E68">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3047,8 +3324,12 @@
       <c r="E69">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3064,8 +3345,12 @@
       <c r="E70">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3081,8 +3366,12 @@
       <c r="E71">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3098,8 +3387,12 @@
       <c r="E72">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3115,8 +3408,12 @@
       <c r="E73">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3132,8 +3429,12 @@
       <c r="E74">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3149,8 +3450,12 @@
       <c r="E75">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3166,8 +3471,12 @@
       <c r="E76">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3183,8 +3492,12 @@
       <c r="E77">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3200,8 +3513,12 @@
       <c r="E78">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3217,8 +3534,12 @@
       <c r="E79">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3234,8 +3555,12 @@
       <c r="E80">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3249,6 +3574,10 @@
         <v>1.2</v>
       </c>
       <c r="E81">
+        <v>1.2</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>

--- a/Feast data/Scenario_params.xlsx
+++ b/Feast data/Scenario_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\Github\Crop-simulation-study\Feast data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9D73F9-FFFB-4107-9263-A48E64CC2F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A15275-B5E1-4043-8541-DC1B847DDF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
   <sheets>
     <sheet name="Feeding" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="32">
   <si>
     <t>THH</t>
   </si>
@@ -85,24 +85,6 @@
     <t>SA</t>
   </si>
   <si>
-    <t>scen 1</t>
-  </si>
-  <si>
-    <t>scen 2</t>
-  </si>
-  <si>
-    <t>scen 3</t>
-  </si>
-  <si>
-    <t>scen 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scen 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">scen 4 </t>
-  </si>
-  <si>
     <t>delta.feed.dmi</t>
   </si>
   <si>
@@ -116,6 +98,39 @@
   </si>
   <si>
     <t>delta.lf.act</t>
+  </si>
+  <si>
+    <t>aez.long</t>
+  </si>
+  <si>
+    <t>Semi-arid</t>
+  </si>
+  <si>
+    <t>Trop. High. Sub-humid</t>
+  </si>
+  <si>
+    <t>Sub-humid</t>
+  </si>
+  <si>
+    <t>Trop. High. Humid</t>
+  </si>
+  <si>
+    <t>Rhodes expansion</t>
+  </si>
+  <si>
+    <t>Maize expansion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maize expansion </t>
+  </si>
+  <si>
+    <t>Rhodes intensification</t>
+  </si>
+  <si>
+    <t>Maize intensification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maize intensification </t>
   </si>
 </sst>
 </file>
@@ -182,9 +197,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,7 +237,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -328,7 +343,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -470,7 +485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -478,17 +493,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D817349B-69B1-4CAB-9EB5-806739EFACD2}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.3671875" customWidth="1"/>
-    <col min="2" max="2" width="10.734375" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -499,1369 +516,1612 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2">
-        <v>1.2</v>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>1.2</v>
+      <c r="D3" t="s">
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>1.2</v>
+      <c r="D4" t="s">
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>1.2</v>
+      <c r="D5" t="s">
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>1.2</v>
+      <c r="D6" t="s">
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>1.2</v>
+      <c r="D7" t="s">
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>1.2</v>
+      <c r="D8" t="s">
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>1.2</v>
+      <c r="D9" t="s">
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>1.2</v>
+      <c r="D10" t="s">
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>1.2</v>
+      <c r="D11" t="s">
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>1.2</v>
+      <c r="D12" t="s">
+        <v>24</v>
       </c>
       <c r="E12">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>1.2</v>
+      <c r="D13" t="s">
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14">
-        <v>1.2</v>
+      <c r="D14" t="s">
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>1.2</v>
+      <c r="D15" t="s">
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D16">
-        <v>1.2</v>
+      <c r="D16" t="s">
+        <v>24</v>
       </c>
       <c r="E16">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>1.2</v>
+      <c r="D17" t="s">
+        <v>25</v>
       </c>
       <c r="E17">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18">
-        <v>1.2</v>
+      <c r="D18" t="s">
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>1.2</v>
+      <c r="D19" t="s">
+        <v>23</v>
       </c>
       <c r="E19">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D20">
-        <v>1.2</v>
+      <c r="D20" t="s">
+        <v>24</v>
       </c>
       <c r="E20">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>1.2</v>
+      <c r="D21" t="s">
+        <v>25</v>
       </c>
       <c r="E21">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22">
-        <v>1.2</v>
+      <c r="D22" t="s">
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23">
-        <v>1.2</v>
+      <c r="D23" t="s">
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="D24">
-        <v>1.2</v>
+      <c r="D24" t="s">
+        <v>24</v>
       </c>
       <c r="E24">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>1.2</v>
+      <c r="D25" t="s">
+        <v>25</v>
       </c>
       <c r="E25">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D26">
-        <v>1.2</v>
+      <c r="D26" t="s">
+        <v>22</v>
       </c>
       <c r="E26">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
-      <c r="D27">
-        <v>1.2</v>
+      <c r="D27" t="s">
+        <v>23</v>
       </c>
       <c r="E27">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D28">
-        <v>1.2</v>
+      <c r="D28" t="s">
+        <v>24</v>
       </c>
       <c r="E28">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>1.2</v>
+      <c r="D29" t="s">
+        <v>25</v>
       </c>
       <c r="E29">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D30">
-        <v>1.2</v>
+      <c r="D30" t="s">
+        <v>22</v>
       </c>
       <c r="E30">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
-      <c r="D31">
-        <v>1.2</v>
+      <c r="D31" t="s">
+        <v>23</v>
       </c>
       <c r="E31">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F31">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="D32">
-        <v>1.2</v>
+      <c r="D32" t="s">
+        <v>24</v>
       </c>
       <c r="E32">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F32">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
       </c>
-      <c r="D33">
-        <v>1.2</v>
+      <c r="D33" t="s">
+        <v>25</v>
       </c>
       <c r="E33">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F33">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
-      <c r="D34">
-        <v>1.2</v>
+      <c r="D34" t="s">
+        <v>22</v>
       </c>
       <c r="E34">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F34">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="D35">
-        <v>1.2</v>
+      <c r="D35" t="s">
+        <v>23</v>
       </c>
       <c r="E35">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="D36">
-        <v>1.2</v>
+      <c r="D36" t="s">
+        <v>24</v>
       </c>
       <c r="E36">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F36">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
       </c>
-      <c r="D37">
-        <v>1.2</v>
+      <c r="D37" t="s">
+        <v>25</v>
       </c>
       <c r="E37">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F37">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
       </c>
-      <c r="D38">
-        <v>1.2</v>
+      <c r="D38" t="s">
+        <v>22</v>
       </c>
       <c r="E38">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F38">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
-      <c r="D39">
-        <v>1.2</v>
+      <c r="D39" t="s">
+        <v>23</v>
       </c>
       <c r="E39">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F39">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
-      <c r="D40">
-        <v>1.2</v>
+      <c r="D40" t="s">
+        <v>24</v>
       </c>
       <c r="E40">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F40">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
       </c>
-      <c r="D41">
-        <v>1.2</v>
+      <c r="D41" t="s">
+        <v>25</v>
       </c>
       <c r="E41">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
       </c>
-      <c r="D42">
-        <v>1.2</v>
+      <c r="D42" t="s">
+        <v>22</v>
       </c>
       <c r="E42">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
-      <c r="D43">
-        <v>1.2</v>
+      <c r="D43" t="s">
+        <v>23</v>
       </c>
       <c r="E43">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F43">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
-      <c r="D44">
-        <v>1.2</v>
+      <c r="D44" t="s">
+        <v>24</v>
       </c>
       <c r="E44">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
       </c>
-      <c r="D45">
-        <v>1.2</v>
+      <c r="D45" t="s">
+        <v>25</v>
       </c>
       <c r="E45">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F45">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
       </c>
-      <c r="D46">
-        <v>1.2</v>
+      <c r="D46" t="s">
+        <v>22</v>
       </c>
       <c r="E46">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F46">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
-      <c r="D47">
-        <v>1.2</v>
+      <c r="D47" t="s">
+        <v>23</v>
       </c>
       <c r="E47">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F47">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
-      <c r="D48">
-        <v>1.2</v>
+      <c r="D48" t="s">
+        <v>24</v>
       </c>
       <c r="E48">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
       </c>
-      <c r="D49">
-        <v>1.2</v>
+      <c r="D49" t="s">
+        <v>25</v>
       </c>
       <c r="E49">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
       </c>
-      <c r="D50">
-        <v>1.2</v>
+      <c r="D50" t="s">
+        <v>22</v>
       </c>
       <c r="E50">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
-      <c r="D51">
-        <v>1.2</v>
+      <c r="D51" t="s">
+        <v>23</v>
       </c>
       <c r="E51">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
-      <c r="D52">
-        <v>1.2</v>
+      <c r="D52" t="s">
+        <v>24</v>
       </c>
       <c r="E52">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F52">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
       </c>
-      <c r="D53">
-        <v>1.2</v>
+      <c r="D53" t="s">
+        <v>25</v>
       </c>
       <c r="E53">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F53">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
       </c>
-      <c r="D54">
-        <v>1.2</v>
+      <c r="D54" t="s">
+        <v>22</v>
       </c>
       <c r="E54">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F54">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
-      <c r="D55">
-        <v>1.2</v>
+      <c r="D55" t="s">
+        <v>23</v>
       </c>
       <c r="E55">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F55">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
-      <c r="D56">
-        <v>1.2</v>
+      <c r="D56" t="s">
+        <v>24</v>
       </c>
       <c r="E56">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F56">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
       </c>
-      <c r="D57">
-        <v>1.2</v>
+      <c r="D57" t="s">
+        <v>25</v>
       </c>
       <c r="E57">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F57">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
       </c>
-      <c r="D58">
-        <v>1.2</v>
+      <c r="D58" t="s">
+        <v>22</v>
       </c>
       <c r="E58">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F58">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
-      <c r="D59">
-        <v>1.2</v>
+      <c r="D59" t="s">
+        <v>23</v>
       </c>
       <c r="E59">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F59">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
       </c>
-      <c r="D60">
-        <v>1.2</v>
+      <c r="D60" t="s">
+        <v>24</v>
       </c>
       <c r="E60">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F60">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
       </c>
-      <c r="D61">
-        <v>1.2</v>
+      <c r="D61" t="s">
+        <v>25</v>
       </c>
       <c r="E61">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F61">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
       </c>
-      <c r="D62">
-        <v>1.2</v>
+      <c r="D62" t="s">
+        <v>22</v>
       </c>
       <c r="E62">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F62">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
-      <c r="D63">
-        <v>1.2</v>
+      <c r="D63" t="s">
+        <v>23</v>
       </c>
       <c r="E63">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
-      <c r="D64">
-        <v>1.2</v>
+      <c r="D64" t="s">
+        <v>24</v>
       </c>
       <c r="E64">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F64">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
       </c>
-      <c r="D65">
-        <v>1.2</v>
+      <c r="D65" t="s">
+        <v>25</v>
       </c>
       <c r="E65">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F65">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
       </c>
-      <c r="D66">
-        <v>1.2</v>
+      <c r="D66" t="s">
+        <v>22</v>
       </c>
       <c r="E66">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F66">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
-      <c r="D67">
-        <v>1.2</v>
+      <c r="D67" t="s">
+        <v>23</v>
       </c>
       <c r="E67">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F67">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
       </c>
-      <c r="D68">
-        <v>1.2</v>
+      <c r="D68" t="s">
+        <v>24</v>
       </c>
       <c r="E68">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F68">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
       </c>
-      <c r="D69">
-        <v>1.2</v>
+      <c r="D69" t="s">
+        <v>25</v>
       </c>
       <c r="E69">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F69">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
       </c>
-      <c r="D70">
-        <v>1.2</v>
+      <c r="D70" t="s">
+        <v>22</v>
       </c>
       <c r="E70">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F70">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
-      <c r="D71">
-        <v>1.2</v>
+      <c r="D71" t="s">
+        <v>23</v>
       </c>
       <c r="E71">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F71">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
       </c>
-      <c r="D72">
-        <v>1.2</v>
+      <c r="D72" t="s">
+        <v>24</v>
       </c>
       <c r="E72">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F72">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
       </c>
-      <c r="D73">
-        <v>1.2</v>
+      <c r="D73" t="s">
+        <v>25</v>
       </c>
       <c r="E73">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F73">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
       </c>
-      <c r="D74">
-        <v>1.2</v>
+      <c r="D74" t="s">
+        <v>22</v>
       </c>
       <c r="E74">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F74">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
-      <c r="D75">
-        <v>1.2</v>
+      <c r="D75" t="s">
+        <v>23</v>
       </c>
       <c r="E75">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F75">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
       </c>
-      <c r="D76">
-        <v>1.2</v>
+      <c r="D76" t="s">
+        <v>24</v>
       </c>
       <c r="E76">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F76">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
       </c>
-      <c r="D77">
-        <v>1.2</v>
+      <c r="D77" t="s">
+        <v>25</v>
       </c>
       <c r="E77">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F77">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
       </c>
-      <c r="D78">
-        <v>1.2</v>
+      <c r="D78" t="s">
+        <v>22</v>
       </c>
       <c r="E78">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F78">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
-      <c r="D79">
-        <v>1.2</v>
+      <c r="D79" t="s">
+        <v>23</v>
       </c>
       <c r="E79">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F79">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
       </c>
-      <c r="D80">
-        <v>1.2</v>
+      <c r="D80" t="s">
+        <v>24</v>
       </c>
       <c r="E80">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F80">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
       </c>
-      <c r="D81">
-        <v>1.2</v>
+      <c r="D81" t="s">
+        <v>25</v>
       </c>
       <c r="E81">
+        <v>1.2</v>
+      </c>
+      <c r="F81">
         <v>1.2</v>
       </c>
     </row>
@@ -1873,17 +2133,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BF1606-AAB3-4737-92D3-A4DE46BB1277}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B81" sqref="B2:B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -1892,1691 +2157,1934 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2">
-        <v>1.2</v>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1.2</v>
       </c>
       <c r="F2">
-        <f>E2</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G2">
+        <f>F2</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>1.2</v>
+      <c r="D3" t="s">
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1.2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">E3</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">F3</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>1.2</v>
+      <c r="D4" t="s">
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1.2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>1.2</v>
+      <c r="D5" t="s">
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1.2</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>1.2</v>
+      <c r="D6" t="s">
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1.2</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>1.2</v>
+      <c r="D7" t="s">
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1.2</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>1.2</v>
+      <c r="D8" t="s">
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1.2</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>1.2</v>
+      <c r="D9" t="s">
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1.2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>1.2</v>
+      <c r="D10" t="s">
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1.2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>1.2</v>
+      <c r="D11" t="s">
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1.2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>1.2</v>
+      <c r="D12" t="s">
+        <v>24</v>
       </c>
       <c r="E12">
         <v>1.2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>1.2</v>
+      <c r="D13" t="s">
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1.2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14">
-        <v>1.2</v>
+      <c r="D14" t="s">
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1.2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>1.2</v>
+      <c r="D15" t="s">
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1.2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D16">
-        <v>1.2</v>
+      <c r="D16" t="s">
+        <v>24</v>
       </c>
       <c r="E16">
         <v>1.2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>1.2</v>
+      <c r="D17" t="s">
+        <v>25</v>
       </c>
       <c r="E17">
         <v>1.2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18">
-        <v>1.2</v>
+      <c r="D18" t="s">
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1.2</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>1.2</v>
+      <c r="D19" t="s">
+        <v>23</v>
       </c>
       <c r="E19">
         <v>1.2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D20">
-        <v>1.2</v>
+      <c r="D20" t="s">
+        <v>24</v>
       </c>
       <c r="E20">
         <v>1.2</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>1.2</v>
+      <c r="D21" t="s">
+        <v>25</v>
       </c>
       <c r="E21">
         <v>1.2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22">
-        <v>1.2</v>
+      <c r="D22" t="s">
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1.2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23">
-        <v>1.2</v>
+      <c r="D23" t="s">
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1.2</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="D24">
-        <v>1.2</v>
+      <c r="D24" t="s">
+        <v>24</v>
       </c>
       <c r="E24">
         <v>1.2</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>1.2</v>
+      <c r="D25" t="s">
+        <v>25</v>
       </c>
       <c r="E25">
         <v>1.2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D26">
-        <v>1.2</v>
+      <c r="D26" t="s">
+        <v>22</v>
       </c>
       <c r="E26">
         <v>1.2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
-      <c r="D27">
-        <v>1.2</v>
+      <c r="D27" t="s">
+        <v>23</v>
       </c>
       <c r="E27">
         <v>1.2</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D28">
-        <v>1.2</v>
+      <c r="D28" t="s">
+        <v>24</v>
       </c>
       <c r="E28">
         <v>1.2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>1.2</v>
+      <c r="D29" t="s">
+        <v>25</v>
       </c>
       <c r="E29">
         <v>1.2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D30">
-        <v>1.2</v>
+      <c r="D30" t="s">
+        <v>22</v>
       </c>
       <c r="E30">
         <v>1.2</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
-      <c r="D31">
-        <v>1.2</v>
+      <c r="D31" t="s">
+        <v>23</v>
       </c>
       <c r="E31">
         <v>1.2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="D32">
-        <v>1.2</v>
+      <c r="D32" t="s">
+        <v>24</v>
       </c>
       <c r="E32">
         <v>1.2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
       </c>
-      <c r="D33">
-        <v>1.2</v>
+      <c r="D33" t="s">
+        <v>25</v>
       </c>
       <c r="E33">
         <v>1.2</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
-      <c r="D34">
-        <v>1.2</v>
+      <c r="D34" t="s">
+        <v>22</v>
       </c>
       <c r="E34">
         <v>1.2</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="D35">
-        <v>1.2</v>
+      <c r="D35" t="s">
+        <v>23</v>
       </c>
       <c r="E35">
         <v>1.2</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="D36">
-        <v>1.2</v>
+      <c r="D36" t="s">
+        <v>24</v>
       </c>
       <c r="E36">
         <v>1.2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
       </c>
-      <c r="D37">
-        <v>1.2</v>
+      <c r="D37" t="s">
+        <v>25</v>
       </c>
       <c r="E37">
         <v>1.2</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
       </c>
-      <c r="D38">
-        <v>1.2</v>
+      <c r="D38" t="s">
+        <v>22</v>
       </c>
       <c r="E38">
         <v>1.2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
-      <c r="D39">
-        <v>1.2</v>
+      <c r="D39" t="s">
+        <v>23</v>
       </c>
       <c r="E39">
         <v>1.2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
-      <c r="D40">
-        <v>1.2</v>
+      <c r="D40" t="s">
+        <v>24</v>
       </c>
       <c r="E40">
         <v>1.2</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
       </c>
-      <c r="D41">
-        <v>1.2</v>
+      <c r="D41" t="s">
+        <v>25</v>
       </c>
       <c r="E41">
         <v>1.2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
       </c>
-      <c r="D42">
-        <v>1.2</v>
+      <c r="D42" t="s">
+        <v>22</v>
       </c>
       <c r="E42">
         <v>1.2</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
-      <c r="D43">
-        <v>1.2</v>
+      <c r="D43" t="s">
+        <v>23</v>
       </c>
       <c r="E43">
         <v>1.2</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
-      <c r="D44">
-        <v>1.2</v>
+      <c r="D44" t="s">
+        <v>24</v>
       </c>
       <c r="E44">
         <v>1.2</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
       </c>
-      <c r="D45">
-        <v>1.2</v>
+      <c r="D45" t="s">
+        <v>25</v>
       </c>
       <c r="E45">
         <v>1.2</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
       </c>
-      <c r="D46">
-        <v>1.2</v>
+      <c r="D46" t="s">
+        <v>22</v>
       </c>
       <c r="E46">
         <v>1.2</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
-      <c r="D47">
-        <v>1.2</v>
+      <c r="D47" t="s">
+        <v>23</v>
       </c>
       <c r="E47">
         <v>1.2</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
-      <c r="D48">
-        <v>1.2</v>
+      <c r="D48" t="s">
+        <v>24</v>
       </c>
       <c r="E48">
         <v>1.2</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
       </c>
-      <c r="D49">
-        <v>1.2</v>
+      <c r="D49" t="s">
+        <v>25</v>
       </c>
       <c r="E49">
         <v>1.2</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
       </c>
-      <c r="D50">
-        <v>1.2</v>
+      <c r="D50" t="s">
+        <v>22</v>
       </c>
       <c r="E50">
         <v>1.2</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
-      <c r="D51">
-        <v>1.2</v>
+      <c r="D51" t="s">
+        <v>23</v>
       </c>
       <c r="E51">
         <v>1.2</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
-      <c r="D52">
-        <v>1.2</v>
+      <c r="D52" t="s">
+        <v>24</v>
       </c>
       <c r="E52">
         <v>1.2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
       </c>
-      <c r="D53">
-        <v>1.2</v>
+      <c r="D53" t="s">
+        <v>25</v>
       </c>
       <c r="E53">
         <v>1.2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
       </c>
-      <c r="D54">
-        <v>1.2</v>
+      <c r="D54" t="s">
+        <v>22</v>
       </c>
       <c r="E54">
         <v>1.2</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
-      <c r="D55">
-        <v>1.2</v>
+      <c r="D55" t="s">
+        <v>23</v>
       </c>
       <c r="E55">
         <v>1.2</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
-      <c r="D56">
-        <v>1.2</v>
+      <c r="D56" t="s">
+        <v>24</v>
       </c>
       <c r="E56">
         <v>1.2</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
       </c>
-      <c r="D57">
-        <v>1.2</v>
+      <c r="D57" t="s">
+        <v>25</v>
       </c>
       <c r="E57">
         <v>1.2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
       </c>
-      <c r="D58">
-        <v>1.2</v>
+      <c r="D58" t="s">
+        <v>22</v>
       </c>
       <c r="E58">
         <v>1.2</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
-      <c r="D59">
-        <v>1.2</v>
+      <c r="D59" t="s">
+        <v>23</v>
       </c>
       <c r="E59">
         <v>1.2</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
       </c>
-      <c r="D60">
-        <v>1.2</v>
+      <c r="D60" t="s">
+        <v>24</v>
       </c>
       <c r="E60">
         <v>1.2</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
       </c>
-      <c r="D61">
-        <v>1.2</v>
+      <c r="D61" t="s">
+        <v>25</v>
       </c>
       <c r="E61">
         <v>1.2</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
       </c>
-      <c r="D62">
-        <v>1.2</v>
+      <c r="D62" t="s">
+        <v>22</v>
       </c>
       <c r="E62">
         <v>1.2</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
-      <c r="D63">
-        <v>1.2</v>
+      <c r="D63" t="s">
+        <v>23</v>
       </c>
       <c r="E63">
         <v>1.2</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
-      <c r="D64">
-        <v>1.2</v>
+      <c r="D64" t="s">
+        <v>24</v>
       </c>
       <c r="E64">
         <v>1.2</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
       </c>
-      <c r="D65">
-        <v>1.2</v>
+      <c r="D65" t="s">
+        <v>25</v>
       </c>
       <c r="E65">
         <v>1.2</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
       </c>
-      <c r="D66">
-        <v>1.2</v>
+      <c r="D66" t="s">
+        <v>22</v>
       </c>
       <c r="E66">
         <v>1.2</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
-      <c r="D67">
-        <v>1.2</v>
+      <c r="D67" t="s">
+        <v>23</v>
       </c>
       <c r="E67">
         <v>1.2</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F81" si="1">E67</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G81" si="1">F67</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
       </c>
-      <c r="D68">
-        <v>1.2</v>
+      <c r="D68" t="s">
+        <v>24</v>
       </c>
       <c r="E68">
         <v>1.2</v>
       </c>
       <c r="F68">
+        <v>1.2</v>
+      </c>
+      <c r="G68">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
       </c>
-      <c r="D69">
-        <v>1.2</v>
+      <c r="D69" t="s">
+        <v>25</v>
       </c>
       <c r="E69">
         <v>1.2</v>
       </c>
       <c r="F69">
+        <v>1.2</v>
+      </c>
+      <c r="G69">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
       </c>
-      <c r="D70">
-        <v>1.2</v>
+      <c r="D70" t="s">
+        <v>22</v>
       </c>
       <c r="E70">
         <v>1.2</v>
       </c>
       <c r="F70">
+        <v>1.2</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
-      <c r="D71">
-        <v>1.2</v>
+      <c r="D71" t="s">
+        <v>23</v>
       </c>
       <c r="E71">
         <v>1.2</v>
       </c>
       <c r="F71">
+        <v>1.2</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
       </c>
-      <c r="D72">
-        <v>1.2</v>
+      <c r="D72" t="s">
+        <v>24</v>
       </c>
       <c r="E72">
         <v>1.2</v>
       </c>
       <c r="F72">
+        <v>1.2</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
       </c>
-      <c r="D73">
-        <v>1.2</v>
+      <c r="D73" t="s">
+        <v>25</v>
       </c>
       <c r="E73">
         <v>1.2</v>
       </c>
       <c r="F73">
+        <v>1.2</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
       </c>
-      <c r="D74">
-        <v>1.2</v>
+      <c r="D74" t="s">
+        <v>22</v>
       </c>
       <c r="E74">
         <v>1.2</v>
       </c>
       <c r="F74">
+        <v>1.2</v>
+      </c>
+      <c r="G74">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
-      <c r="D75">
-        <v>1.2</v>
+      <c r="D75" t="s">
+        <v>23</v>
       </c>
       <c r="E75">
         <v>1.2</v>
       </c>
       <c r="F75">
+        <v>1.2</v>
+      </c>
+      <c r="G75">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
       </c>
-      <c r="D76">
-        <v>1.2</v>
+      <c r="D76" t="s">
+        <v>24</v>
       </c>
       <c r="E76">
         <v>1.2</v>
       </c>
       <c r="F76">
+        <v>1.2</v>
+      </c>
+      <c r="G76">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
       </c>
-      <c r="D77">
-        <v>1.2</v>
+      <c r="D77" t="s">
+        <v>25</v>
       </c>
       <c r="E77">
         <v>1.2</v>
       </c>
       <c r="F77">
+        <v>1.2</v>
+      </c>
+      <c r="G77">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
       </c>
-      <c r="D78">
-        <v>1.2</v>
+      <c r="D78" t="s">
+        <v>22</v>
       </c>
       <c r="E78">
         <v>1.2</v>
       </c>
       <c r="F78">
+        <v>1.2</v>
+      </c>
+      <c r="G78">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
-      <c r="D79">
-        <v>1.2</v>
+      <c r="D79" t="s">
+        <v>23</v>
       </c>
       <c r="E79">
         <v>1.2</v>
       </c>
       <c r="F79">
+        <v>1.2</v>
+      </c>
+      <c r="G79">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
       </c>
-      <c r="D80">
-        <v>1.2</v>
+      <c r="D80" t="s">
+        <v>24</v>
       </c>
       <c r="E80">
         <v>1.2</v>
       </c>
       <c r="F80">
+        <v>1.2</v>
+      </c>
+      <c r="G80">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
       </c>
-      <c r="D81">
-        <v>1.2</v>
+      <c r="D81" t="s">
+        <v>25</v>
       </c>
       <c r="E81">
         <v>1.2</v>
       </c>
       <c r="F81">
+        <v>1.2</v>
+      </c>
+      <c r="G81">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>

--- a/Feast data/Scenario_params.xlsx
+++ b/Feast data/Scenario_params.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\Github\Crop-simulation-study\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159379FE-86D7-4DC9-BE7B-BAF55EFF3EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A45B9F-E725-4231-8697-F042056DCB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
   <sheets>
     <sheet name="Feeding" sheetId="8" r:id="rId1"/>
     <sheet name="Land.footprint" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feeding!$A$1:$F$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Land.footprint!$A$1:$H$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -200,9 +201,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -240,7 +241,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -346,7 +347,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,19 +497,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D817349B-69B1-4CAB-9EB5-806739EFACD2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.3671875" customWidth="1"/>
+    <col min="2" max="2" width="24.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -528,7 +530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -548,7 +550,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -568,7 +570,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -588,7 +590,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -608,7 +610,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -628,7 +630,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -648,7 +650,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -668,7 +670,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -688,7 +690,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -702,13 +704,13 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="F10">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -722,13 +724,13 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="F11">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -742,13 +744,13 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="F12">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -762,13 +764,13 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="F13">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -788,7 +790,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -808,7 +810,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -828,7 +830,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -848,7 +850,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -868,7 +870,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -888,7 +890,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -908,7 +910,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -928,7 +930,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -948,7 +950,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -968,7 +970,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -988,7 +990,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1008,7 +1010,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1028,7 +1030,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1048,7 +1050,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1068,7 +1070,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1088,7 +1090,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1102,13 +1104,13 @@
         <v>18</v>
       </c>
       <c r="E30">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="F30">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1122,13 +1124,13 @@
         <v>19</v>
       </c>
       <c r="E31">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="F31">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1142,13 +1144,13 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="F32">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1162,13 +1164,13 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="F33">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1188,7 +1190,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1208,7 +1210,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1228,7 +1230,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1248,7 +1250,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1268,7 +1270,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -1308,7 +1310,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -1328,7 +1330,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -1348,7 +1350,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -1368,7 +1370,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -1388,7 +1390,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -1408,7 +1410,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -1428,7 +1430,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -1448,7 +1450,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -1468,7 +1470,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -1488,7 +1490,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -1502,13 +1504,13 @@
         <v>18</v>
       </c>
       <c r="E50">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1522,13 +1524,13 @@
         <v>19</v>
       </c>
       <c r="E51">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1542,13 +1544,13 @@
         <v>20</v>
       </c>
       <c r="E52">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -1562,13 +1564,13 @@
         <v>21</v>
       </c>
       <c r="E53">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -1588,7 +1590,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -1608,7 +1610,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -1628,7 +1630,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -1648,7 +1650,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -1668,7 +1670,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -1688,7 +1690,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -1708,7 +1710,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -1728,7 +1730,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -1748,7 +1750,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -1768,7 +1770,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -1788,7 +1790,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -1808,7 +1810,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -1828,7 +1830,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>31</v>
       </c>
@@ -1848,7 +1850,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -1868,7 +1870,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -1888,7 +1890,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -1902,13 +1904,13 @@
         <v>18</v>
       </c>
       <c r="E70">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -1922,13 +1924,13 @@
         <v>19</v>
       </c>
       <c r="E71">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>31</v>
       </c>
@@ -1942,13 +1944,13 @@
         <v>20</v>
       </c>
       <c r="E72">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>31</v>
       </c>
@@ -1962,13 +1964,13 @@
         <v>21</v>
       </c>
       <c r="E73">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -1988,7 +1990,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -2008,7 +2010,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -2028,7 +2030,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -2048,7 +2050,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -2068,7 +2070,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -2108,7 +2110,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -2129,6 +2131,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F81" xr:uid="{D817349B-69B1-4CAB-9EB5-806739EFACD2}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Rhodes expansion"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2136,21 +2145,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BF1606-AAB3-4737-92D3-A4DE46BB1277}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
-    <col min="2" max="3" width="16.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="18.5234375" customWidth="1"/>
+    <col min="2" max="3" width="16.89453125" customWidth="1"/>
+    <col min="4" max="4" width="11.3671875" customWidth="1"/>
+    <col min="5" max="5" width="13.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2176,7 +2186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2200,7 +2210,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2224,7 +2234,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2248,7 +2258,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2272,7 +2282,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2306,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2320,7 +2330,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2344,7 +2354,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2368,7 +2378,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2382,17 +2392,17 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="G10">
         <v>1.2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <f>F10</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2406,17 +2416,17 @@
         <v>19</v>
       </c>
       <c r="F11">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="G11">
         <v>1.2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H11:H13" si="1">F11</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2430,17 +2440,17 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="G12">
         <v>1.2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2454,17 +2464,17 @@
         <v>21</v>
       </c>
       <c r="F13">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="G13">
         <v>1.2</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2478,17 +2488,19 @@
         <v>18</v>
       </c>
       <c r="F14">
-        <v>1.2</v>
+        <f>F10</f>
+        <v>0.75</v>
       </c>
       <c r="G14">
+        <f t="shared" ref="G14:H14" si="2">G10</f>
         <v>1.2</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2502,17 +2514,19 @@
         <v>19</v>
       </c>
       <c r="F15">
-        <v>1.2</v>
+        <f t="shared" ref="F15:H15" si="3">F11</f>
+        <v>0.75</v>
       </c>
       <c r="G15">
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2526,17 +2540,19 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>1.2</v>
+        <f t="shared" ref="F16:H16" si="4">F12</f>
+        <v>0.75</v>
       </c>
       <c r="G16">
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2550,17 +2566,19 @@
         <v>21</v>
       </c>
       <c r="F17">
-        <v>1.2</v>
+        <f t="shared" ref="F17:H17" si="5">F13</f>
+        <v>0.75</v>
       </c>
       <c r="G17">
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2580,11 +2598,11 @@
         <v>1.2</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:H21" si="1">G18</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H18:H21" si="6">G18</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2604,11 +2622,11 @@
         <v>1.2</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2628,11 +2646,11 @@
         <v>1.2</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2652,11 +2670,11 @@
         <v>1.2</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2680,7 +2698,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2704,7 +2722,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2728,7 +2746,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2752,7 +2770,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2776,7 +2794,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2800,7 +2818,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2824,7 +2842,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2848,7 +2866,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2862,17 +2880,17 @@
         <v>18</v>
       </c>
       <c r="F30">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="G30">
         <v>1.2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H30:H33" si="7">F30</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2886,17 +2904,17 @@
         <v>19</v>
       </c>
       <c r="F31">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="G31">
         <v>1.2</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2910,17 +2928,17 @@
         <v>20</v>
       </c>
       <c r="F32">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="G32">
         <v>1.2</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2934,17 +2952,17 @@
         <v>21</v>
       </c>
       <c r="F33">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="G33">
         <v>1.2</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2958,17 +2976,19 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>1.2</v>
+        <f>F33</f>
+        <v>0.75</v>
       </c>
       <c r="G34">
+        <f t="shared" ref="G34:H34" si="8">G33</f>
         <v>1.2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2982,17 +3002,19 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>1.2</v>
+        <f t="shared" ref="F35:F37" si="9">F34</f>
+        <v>0.75</v>
       </c>
       <c r="G35">
+        <f t="shared" ref="G35:G37" si="10">G34</f>
         <v>1.2</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H35:H37" si="11">H34</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -3006,17 +3028,19 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>1.2</v>
+        <f t="shared" si="9"/>
+        <v>0.75</v>
       </c>
       <c r="G36">
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -3030,17 +3054,19 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>1.2</v>
+        <f t="shared" si="9"/>
+        <v>0.75</v>
       </c>
       <c r="G37">
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -3060,11 +3086,11 @@
         <v>1.2</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H41" si="2">G38</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H38:H41" si="12">G38</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3084,11 +3110,11 @@
         <v>1.2</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="12"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -3108,11 +3134,11 @@
         <v>1.2</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="12"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -3132,11 +3158,11 @@
         <v>1.2</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="12"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -3160,7 +3186,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -3184,7 +3210,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3208,7 +3234,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -3232,7 +3258,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -3256,7 +3282,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3280,7 +3306,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -3304,7 +3330,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -3328,7 +3354,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3342,17 +3368,17 @@
         <v>18</v>
       </c>
       <c r="F50">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>1.2</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H50:H53" si="13">F50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -3366,17 +3392,17 @@
         <v>19</v>
       </c>
       <c r="F51">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>1.2</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3390,17 +3416,17 @@
         <v>20</v>
       </c>
       <c r="F52">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>1.2</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3414,17 +3440,17 @@
         <v>21</v>
       </c>
       <c r="F53">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>1.2</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3438,17 +3464,19 @@
         <v>18</v>
       </c>
       <c r="F54">
-        <v>1.2</v>
+        <f>F53</f>
+        <v>1</v>
       </c>
       <c r="G54">
+        <f t="shared" ref="G54:H54" si="14">G53</f>
         <v>1.2</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -3462,17 +3490,19 @@
         <v>19</v>
       </c>
       <c r="F55">
-        <v>1.2</v>
+        <f t="shared" ref="F55:F57" si="15">F54</f>
+        <v>1</v>
       </c>
       <c r="G55">
+        <f t="shared" ref="G55:G57" si="16">G54</f>
         <v>1.2</v>
       </c>
       <c r="H55">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H55:H57" si="17">H54</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -3486,17 +3516,19 @@
         <v>20</v>
       </c>
       <c r="F56">
-        <v>1.2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="G56">
+        <f t="shared" si="16"/>
         <v>1.2</v>
       </c>
       <c r="H56">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -3510,17 +3542,19 @@
         <v>21</v>
       </c>
       <c r="F57">
-        <v>1.2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="G57">
+        <f t="shared" si="16"/>
         <v>1.2</v>
       </c>
       <c r="H57">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -3540,11 +3574,11 @@
         <v>1.2</v>
       </c>
       <c r="H58">
-        <f t="shared" ref="H58:H61" si="3">G58</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H58:H61" si="18">G58</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -3564,11 +3598,11 @@
         <v>1.2</v>
       </c>
       <c r="H59">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="18"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -3588,11 +3622,11 @@
         <v>1.2</v>
       </c>
       <c r="H60">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="18"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -3612,11 +3646,11 @@
         <v>1.2</v>
       </c>
       <c r="H61">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="18"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -3636,11 +3670,11 @@
         <v>1.2</v>
       </c>
       <c r="H62">
-        <f t="shared" ref="H62:H97" si="4">G62</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H62:H97" si="19">G62</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -3660,11 +3694,11 @@
         <v>1.2</v>
       </c>
       <c r="H63">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -3684,11 +3718,11 @@
         <v>1.2</v>
       </c>
       <c r="H64">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -3708,11 +3742,11 @@
         <v>1.2</v>
       </c>
       <c r="H65">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -3732,11 +3766,11 @@
         <v>1.2</v>
       </c>
       <c r="H66">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -3756,11 +3790,11 @@
         <v>1.2</v>
       </c>
       <c r="H67">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -3780,11 +3814,11 @@
         <v>1.2</v>
       </c>
       <c r="H68">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -3804,11 +3838,11 @@
         <v>1.2</v>
       </c>
       <c r="H69">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -3822,17 +3856,17 @@
         <v>18</v>
       </c>
       <c r="F70">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="G70">
         <v>1.2</v>
       </c>
       <c r="H70">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H70:H73" si="20">F70</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3846,17 +3880,17 @@
         <v>19</v>
       </c>
       <c r="F71">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="G71">
         <v>1.2</v>
       </c>
       <c r="H71">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="20"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -3870,17 +3904,17 @@
         <v>20</v>
       </c>
       <c r="F72">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="G72">
         <v>1.2</v>
       </c>
       <c r="H72">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="20"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -3894,17 +3928,17 @@
         <v>21</v>
       </c>
       <c r="F73">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="G73">
         <v>1.2</v>
       </c>
       <c r="H73">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="20"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -3918,17 +3952,19 @@
         <v>18</v>
       </c>
       <c r="F74">
-        <v>1.2</v>
+        <f>F73</f>
+        <v>1.25</v>
       </c>
       <c r="G74">
+        <f t="shared" ref="G74:H74" si="21">G73</f>
         <v>1.2</v>
       </c>
       <c r="H74">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="21"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -3942,17 +3978,19 @@
         <v>19</v>
       </c>
       <c r="F75">
-        <v>1.2</v>
+        <f t="shared" ref="F75:F77" si="22">F74</f>
+        <v>1.25</v>
       </c>
       <c r="G75">
+        <f t="shared" ref="G75:G77" si="23">G74</f>
         <v>1.2</v>
       </c>
       <c r="H75">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H75:H77" si="24">H74</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -3966,17 +4004,19 @@
         <v>20</v>
       </c>
       <c r="F76">
-        <v>1.2</v>
+        <f t="shared" si="22"/>
+        <v>1.25</v>
       </c>
       <c r="G76">
+        <f t="shared" si="23"/>
         <v>1.2</v>
       </c>
       <c r="H76">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="24"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -3990,17 +4030,19 @@
         <v>21</v>
       </c>
       <c r="F77">
-        <v>1.2</v>
+        <f t="shared" si="22"/>
+        <v>1.25</v>
       </c>
       <c r="G77">
+        <f t="shared" si="23"/>
         <v>1.2</v>
       </c>
       <c r="H77">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="24"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -4020,11 +4062,11 @@
         <v>1.2</v>
       </c>
       <c r="H78">
-        <f t="shared" ref="H78:H81" si="5">G78</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H78:H81" si="25">G78</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -4044,11 +4086,11 @@
         <v>1.2</v>
       </c>
       <c r="H79">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -4068,11 +4110,11 @@
         <v>1.2</v>
       </c>
       <c r="H80">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -4092,11 +4134,11 @@
         <v>1.2</v>
       </c>
       <c r="H81">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -4116,11 +4158,11 @@
         <v>1.2</v>
       </c>
       <c r="H82">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -4140,11 +4182,11 @@
         <v>1.2</v>
       </c>
       <c r="H83">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -4164,11 +4206,11 @@
         <v>1.2</v>
       </c>
       <c r="H84">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -4188,11 +4230,11 @@
         <v>1.2</v>
       </c>
       <c r="H85">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -4212,11 +4254,11 @@
         <v>1.2</v>
       </c>
       <c r="H86">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -4236,11 +4278,11 @@
         <v>1.2</v>
       </c>
       <c r="H87">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -4260,11 +4302,11 @@
         <v>1.2</v>
       </c>
       <c r="H88">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -4284,11 +4326,11 @@
         <v>1.2</v>
       </c>
       <c r="H89">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -4302,17 +4344,17 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>1.2</v>
       </c>
       <c r="H90">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H90:H93" si="26">F90</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -4326,17 +4368,17 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>1.2</v>
       </c>
       <c r="H91">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -4350,17 +4392,17 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>1.2</v>
       </c>
       <c r="H92">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -4374,17 +4416,17 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>1.2</v>
       </c>
       <c r="H93">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -4398,17 +4440,19 @@
         <v>18</v>
       </c>
       <c r="F94">
-        <v>1.2</v>
+        <f>F90</f>
+        <v>1</v>
       </c>
       <c r="G94">
+        <f t="shared" ref="G94:H94" si="27">G90</f>
         <v>1.2</v>
       </c>
       <c r="H94">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -4422,17 +4466,19 @@
         <v>19</v>
       </c>
       <c r="F95">
-        <v>1.2</v>
+        <f t="shared" ref="F95:H95" si="28">F91</f>
+        <v>1</v>
       </c>
       <c r="G95">
+        <f t="shared" si="28"/>
         <v>1.2</v>
       </c>
       <c r="H95">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -4446,17 +4492,19 @@
         <v>20</v>
       </c>
       <c r="F96">
-        <v>1.2</v>
+        <f t="shared" ref="F96:H96" si="29">F92</f>
+        <v>1</v>
       </c>
       <c r="G96">
+        <f t="shared" si="29"/>
         <v>1.2</v>
       </c>
       <c r="H96">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -4470,17 +4518,19 @@
         <v>21</v>
       </c>
       <c r="F97">
-        <v>1.2</v>
+        <f t="shared" ref="F97:H97" si="30">F93</f>
+        <v>1</v>
       </c>
       <c r="G97">
+        <f t="shared" si="30"/>
         <v>1.2</v>
       </c>
       <c r="H97">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -4500,11 +4550,11 @@
         <v>1.2</v>
       </c>
       <c r="H98">
-        <f t="shared" ref="H98:H101" si="6">G98</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H98:H101" si="31">G98</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -4524,11 +4574,11 @@
         <v>1.2</v>
       </c>
       <c r="H99">
-        <f t="shared" si="6"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="31"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -4548,11 +4598,11 @@
         <v>1.2</v>
       </c>
       <c r="H100">
-        <f t="shared" si="6"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="31"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -4572,12 +4622,19 @@
         <v>1.2</v>
       </c>
       <c r="H101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>1.2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H101" xr:uid="{10BF1606-AAB3-4737-92D3-A4DE46BB1277}"/>
+  <autoFilter ref="A1:H101" xr:uid="{10BF1606-AAB3-4737-92D3-A4DE46BB1277}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Rhodes expansion"/>
+        <filter val="Rhodes intensification"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Feast data/Scenario_params.xlsx
+++ b/Feast data/Scenario_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\Github\Crop-simulation-study\Feast data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4489DCAB-B213-4822-B66B-D363E92CFBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4083B0-9309-4F41-9FA9-5AA260BB0C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
   <sheets>
     <sheet name="Feeding" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feeding!$A$1:$E$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Land.footprint!$F$98:$F$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Land.footprint!$A$1:$F$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -195,9 +195,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,7 +235,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -341,7 +341,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -483,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,17 +493,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D817349B-69B1-4CAB-9EB5-806739EFACD2}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.3671875" customWidth="1"/>
-    <col min="2" max="2" width="24.5234375" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -520,7 +520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -538,7 +538,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -574,7 +574,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -592,7 +592,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -610,7 +610,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -646,7 +646,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -664,7 +664,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -682,7 +682,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -700,7 +700,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -718,7 +718,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -736,7 +736,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -754,7 +754,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -772,7 +772,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -808,7 +808,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -862,7 +862,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -880,7 +880,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>29</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>29</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>29</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>29</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>29</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>29</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>29</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>29</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>29</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -1968,21 +1968,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BF1606-AAB3-4737-92D3-A4DE46BB1277}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5234375" customWidth="1"/>
-    <col min="2" max="3" width="16.89453125" customWidth="1"/>
-    <col min="4" max="4" width="11.3671875" customWidth="1"/>
-    <col min="5" max="5" width="13.1015625" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="3" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2143,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2511,7 +2512,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2528,7 +2529,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2545,7 +2546,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2598,7 +2599,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2706,7 +2707,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2723,7 +2724,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2757,7 +2758,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2792,7 +2793,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2828,7 +2829,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2846,7 +2847,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2897,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -3180,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -3338,7 +3339,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -3410,7 +3411,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -3461,7 +3462,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -3532,7 +3533,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -3584,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -3690,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -3763,6 +3764,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F101" xr:uid="{10BF1606-AAB3-4737-92D3-A4DE46BB1277}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Maize expansion"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>